--- a/pred_ohlcv/54_21/2020-01-22 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 MIX ohlcv.xlsx
@@ -1094,7 +1094,7 @@
         <v>-2088692.56953158</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1913471.37073158</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1917859.50943158</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-3131193.36853158</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-3124195.36853158</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-2838759.31183158</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-2469352.98243158</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-2450159.81653158</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-2451135.52553158</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-2499324.30413158</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-2530851.81513158</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-2513033.60913158</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-2502461.88703158</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-2490715.52913158</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-2455978.79223158</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-2442284.78093158</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-2476268.15943158</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-2513772.86673158</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-2415854.453884453</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-2424390.427384452</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-2368390.427384452</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-2374890.427384452</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-2374890.427384452</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 MIX ohlcv.xlsx
@@ -1094,7 +1094,7 @@
         <v>-2088692.56953158</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1913471.37073158</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1917859.50943158</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1945993.97803158</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1945993.97803158</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1938993.97803158</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1939759.12273158</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1949647.68273158</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-3131193.36853158</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-3124195.36853158</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-2838759.31183158</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-2813018.00023158</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-2801778.27563158</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-2469352.98243158</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-2502461.88703158</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-2490715.52913158</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-2455978.79223158</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-2442284.78093158</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-2476268.15943158</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-2513772.86673158</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-2415854.453884453</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-2424390.427384452</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-2368390.427384452</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-2374890.427384452</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
